--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_23_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_23_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.8296711779702752, 4.419814998245806]</t>
+          <t>[3.8313110575713356, 4.418175118644745]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.679316257115619, -2.5283688623485427]</t>
+          <t>[-2.6793162571156195, -2.5283688623485423]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.14951373711960692, 0.15948365094386574]</t>
+          <t>[-0.14941771895024392, 0.15938763277450274]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.9484731620291964</v>
+        <v>0.9484411652323645</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9484731620291964</v>
+        <v>0.9484411652323645</v>
       </c>
       <c r="W2" t="n">
         <v>10.37693693693726</v>
